--- a/medicine/Psychotrope/Oettinger/Oettinger.xlsx
+++ b/medicine/Psychotrope/Oettinger/Oettinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oettinger Brauerei est une entreprise brassicole possédant cinq brasseries en Allemagne et employant 930 personnes : Oettingen, Gotha, Schwerin, Mönchengladbach et Brunswick. 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que l'histoire de la brasserie remonte à 1313 à Oettingen, la véritable brasserie industrielle ne naît qu'en 1731 ; plus tard en 1956, la Fürstliche Brauhaus zu Oettingen fut transformée par la famille Kollmar (Ingrid Kollmar 64,5 %, Günther Kollmar 11,1 % et Dirk Kollmar 24,4 %) en Oettinger Brauerei GmbH avec pour vocation de produire une bière bon marché. 
 Depuis 2004, c'est la plus grande brasserie privée allemande, avec une production de 6,4 millions d'hectolitres (dont 1 million de boissons non alcoolisées). Toutes les bières sont produites selon le Reinheitsgebot.
@@ -545,7 +559,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alkoholfrei, 0,5 % vol.
 Alkoholfreies Weißbier, 0,5 % vol.
@@ -590,7 +606,9 @@
           <t>Cocktail à base de bière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mixgetränk Hefeweißbier und Erfrischungsgetränk mit Grapefruitgeschmack, 2,5 % vol.
 Mixgetränk Hefeweißbier und Erfrischungsgetränk mit Erdbeeregeschmack, 2,5 % vol.
@@ -623,7 +641,9 @@
           <t>Glorietta</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boissons rafraichissantes non alcoolisées :
 Zitrone,
@@ -664,7 +684,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Site officiel
  Portail de la bière   Portail des entreprises   Portail de l’Allemagne                   
